--- a/Experiment 2/Trace Files/newreno-vegas/ThroughputGraph.xlsx
+++ b/Experiment 2/Trace Files/newreno-vegas/ThroughputGraph.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
     <t>NewReno</t>
   </si>
@@ -33,6 +33,9 @@
   </si>
   <si>
     <t>Vegas</t>
+  </si>
+  <si>
+    <t>T-Test Probabillity. One tailed, two-sample unequal variance</t>
   </si>
 </sst>
 </file>
@@ -500,11 +503,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1086957520"/>
-        <c:axId val="-1086954800"/>
+        <c:axId val="604683040"/>
+        <c:axId val="604680320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1086957520"/>
+        <c:axId val="604683040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -603,7 +606,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1086954800"/>
+        <c:crossAx val="604680320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -611,7 +614,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1086954800"/>
+        <c:axId val="604680320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="360"/>
@@ -719,7 +722,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1086957520"/>
+        <c:crossAx val="604683040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1097,11 +1100,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1086956976"/>
-        <c:axId val="-1086959696"/>
+        <c:axId val="604671616"/>
+        <c:axId val="604672704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1086956976"/>
+        <c:axId val="604671616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1200,7 +1203,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1086959696"/>
+        <c:crossAx val="604672704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1208,7 +1211,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1086959696"/>
+        <c:axId val="604672704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="360"/>
@@ -1316,7 +1319,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1086956976"/>
+        <c:crossAx val="604671616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2839,10 +2842,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
@@ -3001,6 +3004,15 @@
         <v>464.95975690400002</v>
       </c>
     </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <f>TTEST(B2:B11,C2:C11,1,3)</f>
+        <v>4.602778171491477E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Experiment 2/Trace Files/newreno-vegas/ThroughputGraph.xlsx
+++ b/Experiment 2/Trace Files/newreno-vegas/ThroughputGraph.xlsx
@@ -248,34 +248,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>411.60203794900002</c:v>
+                  <c:v>253.143842699</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>411.69672376800003</c:v>
+                  <c:v>253.25537842599999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>411.73458353500001</c:v>
+                  <c:v>253.30001542299999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>411.56988204300001</c:v>
+                  <c:v>253.07855557600001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>398.633859513</c:v>
+                  <c:v>238.239814741</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>376.82696532900002</c:v>
+                  <c:v>215.08980305099999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>396.97995924600002</c:v>
+                  <c:v>235.656361584</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>390.22027339800002</c:v>
+                  <c:v>227.44313988100001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>391.61999092500002</c:v>
+                  <c:v>227.403977932</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>389.17132905800003</c:v>
+                  <c:v>202.662696869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -354,34 +354,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>397.05944506399999</c:v>
+                  <c:v>244.15460442099999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>396.99114276900002</c:v>
+                  <c:v>244.074040602</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>397.24853555999999</c:v>
+                  <c:v>244.350134935</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>396.41399135199998</c:v>
+                  <c:v>243.33535106100001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>383.15123344300002</c:v>
+                  <c:v>228.13996531699999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>363.036687207</c:v>
+                  <c:v>206.827437202</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>378.746801758</c:v>
+                  <c:v>222.99143003399999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>376.656458665</c:v>
+                  <c:v>219.732769182</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>378.16223440099998</c:v>
+                  <c:v>220.31863456799999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>414.19707674599999</c:v>
+                  <c:v>201.96774286600001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -503,11 +503,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="604683040"/>
-        <c:axId val="604680320"/>
+        <c:axId val="-2103015648"/>
+        <c:axId val="-2103013472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="604683040"/>
+        <c:axId val="-2103015648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -606,7 +606,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="604680320"/>
+        <c:crossAx val="-2103013472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -614,10 +614,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="604680320"/>
+        <c:axId val="-2103013472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="360"/>
+          <c:min val="150"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -722,7 +722,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="604683040"/>
+        <c:crossAx val="-2103015648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -951,34 +951,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>411.60203794900002</c:v>
+                  <c:v>253.143842699</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>411.69672376800003</c:v>
+                  <c:v>253.25537842599999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>411.73458353500001</c:v>
+                  <c:v>253.30001542299999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>411.56988204300001</c:v>
+                  <c:v>253.07855557600001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>398.633859513</c:v>
+                  <c:v>238.239814741</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>376.82696532900002</c:v>
+                  <c:v>215.08980305099999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>396.97995924600002</c:v>
+                  <c:v>235.656361584</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>390.22027339800002</c:v>
+                  <c:v>227.44313988100001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>391.61999092500002</c:v>
+                  <c:v>227.403977932</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>389.17132905800003</c:v>
+                  <c:v>202.662696869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1057,34 +1057,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>397.05944506399999</c:v>
+                  <c:v>244.15460442099999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>396.99114276900002</c:v>
+                  <c:v>244.074040602</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>397.24853555999999</c:v>
+                  <c:v>244.350134935</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>396.41399135199998</c:v>
+                  <c:v>243.33535106100001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>383.15123344300002</c:v>
+                  <c:v>228.13996531699999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>363.036687207</c:v>
+                  <c:v>206.827437202</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>378.746801758</c:v>
+                  <c:v>222.99143003399999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>376.656458665</c:v>
+                  <c:v>219.732769182</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>378.16223440099998</c:v>
+                  <c:v>220.31863456799999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>414.19707674599999</c:v>
+                  <c:v>201.96774286600001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1100,11 +1100,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="604671616"/>
-        <c:axId val="604672704"/>
+        <c:axId val="-2103018912"/>
+        <c:axId val="-2103022176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="604671616"/>
+        <c:axId val="-2103018912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1203,7 +1203,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="604672704"/>
+        <c:crossAx val="-2103022176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1211,10 +1211,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="604672704"/>
+        <c:axId val="-2103022176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="360"/>
+          <c:max val="260"/>
+          <c:min val="200"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1319,7 +1320,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="604671616"/>
+        <c:crossAx val="-2103018912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2845,7 +2846,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
@@ -2869,10 +2870,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>411.60203794900002</v>
+        <v>253.143842699</v>
       </c>
       <c r="C2" s="1">
-        <v>397.05944506399999</v>
+        <v>244.15460442099999</v>
       </c>
       <c r="D2" s="1">
         <v>714.56695784099998</v>
@@ -2883,10 +2884,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>411.69672376800003</v>
+        <v>253.25537842599999</v>
       </c>
       <c r="C3" s="1">
-        <v>396.99114276900002</v>
+        <v>244.074040602</v>
       </c>
       <c r="D3" s="1">
         <v>716.32276668300005</v>
@@ -2897,10 +2898,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>411.73458353500001</v>
+        <v>253.30001542299999</v>
       </c>
       <c r="C4" s="1">
-        <v>397.24853555999999</v>
+        <v>244.350134935</v>
       </c>
       <c r="D4" s="1">
         <v>715.68243708399996</v>
@@ -2911,10 +2912,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>411.56988204300001</v>
+        <v>253.07855557600001</v>
       </c>
       <c r="C5" s="1">
-        <v>396.41399135199998</v>
+        <v>243.33535106100001</v>
       </c>
       <c r="D5" s="1">
         <v>714.13287035500002</v>
@@ -2925,10 +2926,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>398.633859513</v>
+        <v>238.239814741</v>
       </c>
       <c r="C6" s="1">
-        <v>383.15123344300002</v>
+        <v>228.13996531699999</v>
       </c>
       <c r="D6" s="1">
         <v>634.93470169399995</v>
@@ -2939,10 +2940,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>376.82696532900002</v>
+        <v>215.08980305099999</v>
       </c>
       <c r="C7" s="1">
-        <v>363.036687207</v>
+        <v>206.827437202</v>
       </c>
       <c r="D7" s="1">
         <v>510.46550061200003</v>
@@ -2953,10 +2954,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>396.97995924600002</v>
+        <v>235.656361584</v>
       </c>
       <c r="C8" s="1">
-        <v>378.746801758</v>
+        <v>222.99143003399999</v>
       </c>
       <c r="D8" s="1">
         <v>620.13231496699996</v>
@@ -2967,10 +2968,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>390.22027339800002</v>
+        <v>227.44313988100001</v>
       </c>
       <c r="C9" s="1">
-        <v>376.656458665</v>
+        <v>219.732769182</v>
       </c>
       <c r="D9" s="1">
         <v>580.89460627200003</v>
@@ -2981,10 +2982,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>391.61999092500002</v>
+        <v>227.403977932</v>
       </c>
       <c r="C10" s="1">
-        <v>378.16223440099998</v>
+        <v>220.31863456799999</v>
       </c>
       <c r="D10" s="1">
         <v>580.28289922500005</v>
@@ -2995,10 +2996,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>389.17132905800003</v>
+        <v>202.662696869</v>
       </c>
       <c r="C11" s="2">
-        <v>414.19707674599999</v>
+        <v>201.96774286600001</v>
       </c>
       <c r="D11" s="2">
         <v>464.95975690400002</v>
@@ -3010,7 +3011,7 @@
       </c>
       <c r="C14">
         <f>TTEST(B2:B11,C2:C11,1,3)</f>
-        <v>4.602778171491477E-2</v>
+        <v>0.14324614483709014</v>
       </c>
     </row>
   </sheetData>

--- a/Experiment 2/Trace Files/newreno-vegas/ThroughputGraph.xlsx
+++ b/Experiment 2/Trace Files/newreno-vegas/ThroughputGraph.xlsx
@@ -503,11 +503,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2103015648"/>
-        <c:axId val="-2103013472"/>
+        <c:axId val="-1362698848"/>
+        <c:axId val="-1362701024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2103015648"/>
+        <c:axId val="-1362698848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -606,7 +606,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2103013472"/>
+        <c:crossAx val="-1362701024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -614,7 +614,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2103013472"/>
+        <c:axId val="-1362701024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="150"/>
@@ -722,7 +722,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2103015648"/>
+        <c:crossAx val="-1362698848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1100,11 +1100,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2103018912"/>
-        <c:axId val="-2103022176"/>
+        <c:axId val="-1362710272"/>
+        <c:axId val="-1362700480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2103018912"/>
+        <c:axId val="-1362710272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1203,7 +1203,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2103022176"/>
+        <c:crossAx val="-1362700480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1211,7 +1211,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2103022176"/>
+        <c:axId val="-1362700480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="260"/>
@@ -1320,7 +1320,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2103018912"/>
+        <c:crossAx val="-1362710272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2846,7 +2846,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
@@ -3010,8 +3010,8 @@
         <v>3</v>
       </c>
       <c r="C14">
-        <f>TTEST(B2:B11,C2:C11,1,3)</f>
-        <v>0.14324614483709014</v>
+        <f>TTEST(B2:B11,C2:C11,2,3)</f>
+        <v>0.28649228967418028</v>
       </c>
     </row>
   </sheetData>

--- a/Experiment 2/Trace Files/newreno-vegas/ThroughputGraph.xlsx
+++ b/Experiment 2/Trace Files/newreno-vegas/ThroughputGraph.xlsx
@@ -503,11 +503,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1362698848"/>
-        <c:axId val="-1362701024"/>
+        <c:axId val="-751411840"/>
+        <c:axId val="-751408576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1362698848"/>
+        <c:axId val="-751411840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -606,7 +606,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1362701024"/>
+        <c:crossAx val="-751408576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -614,7 +614,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1362701024"/>
+        <c:axId val="-751408576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="150"/>
@@ -722,7 +722,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1362698848"/>
+        <c:crossAx val="-751411840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1100,11 +1100,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1362710272"/>
-        <c:axId val="-1362700480"/>
+        <c:axId val="-751418912"/>
+        <c:axId val="-751415104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1362710272"/>
+        <c:axId val="-751418912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1203,7 +1203,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1362700480"/>
+        <c:crossAx val="-751415104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1211,7 +1211,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1362700480"/>
+        <c:axId val="-751415104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="260"/>
@@ -1320,7 +1320,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1362710272"/>
+        <c:crossAx val="-751418912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2553,8 +2553,8 @@
       <xdr:rowOff>61473</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>46105</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>607039</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>53789</xdr:rowOff>
     </xdr:to>

--- a/Experiment 2/Trace Files/newreno-vegas/ThroughputGraph.xlsx
+++ b/Experiment 2/Trace Files/newreno-vegas/ThroughputGraph.xlsx
@@ -503,11 +503,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-751411840"/>
-        <c:axId val="-751408576"/>
+        <c:axId val="-1841185600"/>
+        <c:axId val="-1841172000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-751411840"/>
+        <c:axId val="-1841185600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -606,7 +606,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-751408576"/>
+        <c:crossAx val="-1841172000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -614,7 +614,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-751408576"/>
+        <c:axId val="-1841172000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="150"/>
@@ -722,7 +722,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-751411840"/>
+        <c:crossAx val="-1841185600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -838,7 +838,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Experiment 2: Throughput. No CBR</a:t>
+              <a:t>Experiment 2: Throughput</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1100,11 +1100,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-751418912"/>
-        <c:axId val="-751415104"/>
+        <c:axId val="-1841176352"/>
+        <c:axId val="-1841182880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-751418912"/>
+        <c:axId val="-1841176352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1133,6 +1133,11 @@
                   <a:rPr lang="en-US"/>
                   <a:t>CBR</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (Mbps)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1203,7 +1208,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-751415104"/>
+        <c:crossAx val="-1841182880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1211,7 +1216,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-751415104"/>
+        <c:axId val="-1841182880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="260"/>
@@ -1320,7 +1325,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-751418912"/>
+        <c:crossAx val="-1841176352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2846,7 +2851,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
